--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -45,13 +45,25 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -64,13 +76,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -79,31 +91,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -120,13 +132,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -146,6 +158,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -345,17 +358,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -383,10 +396,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -634,12 +647,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -926,7 +939,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -954,10 +967,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Produkty wejściowe - import" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Poziom operacji</t>
   </si>
@@ -25,31 +33,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -66,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,99 +71,263 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Poziom operacji" dataDxfId="2"/>
+    <tableColumn id="2" name="Produkt" dataDxfId="1"/>
+    <tableColumn id="3" name="Ilość" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -368,7 +529,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -387,7 +548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -417,7 +578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -443,7 +604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -469,7 +630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -495,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -521,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -547,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -573,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -638,9 +799,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -657,7 +824,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -676,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -702,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -754,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -780,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,9 +1090,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -939,7 +1112,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -958,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1209,89 +1382,100 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.8516" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="9" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-technologies/src/main/resources/technologies/public/resources/operationProductInComponentImportSchema_pl.xlsx
@@ -1,21 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED1685-3D89-4412-B2DE-5D7E6EA23A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty wejściowe - import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anna Kaźmierczak</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{518FD0BF-572F-4247-B35B-E174E17F98C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana. Numer operacji w drzewie technologii, np. "1." lub "2.B.2.". Pamiętaj o wpisaniu każdego znaku - nawet kropki na końcu numeru.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4D3C8F25-E17F-406A-94A4-9EAE38ACDD84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana. Wpisz numer produktu zdefiniowanego w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{135A2449-25B8-410B-94FE-A75C31064327}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana. Podaj ilość produktu w jednostce podstawowej. Jako separatora dziesiętnego użyj przecinka.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -47,6 +137,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -76,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -231,7 +332,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
     </tableStyle>
   </tableStyles>
@@ -315,12 +416,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="operationProductInComponentImportSchema_pl" displayName="operationProductInComponentImportSchema_pl" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Poziom operacji" dataDxfId="2"/>
-    <tableColumn id="2" name="Produkt" dataDxfId="1"/>
-    <tableColumn id="3" name="Ilość" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Poziom operacji" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Produkt" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ilość" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1400,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1410,14 +1511,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.4" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,42 +1529,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.4" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.4" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.4" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.4" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.4" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.4" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.4" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.4" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1474,8 +1575,9 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>